--- a/results.xlsx
+++ b/results.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or8\Desktop\FilesP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahjee\AppData\Local\Temp\BvSshSftp\Bv005b15\Bv001c37\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E589358-7016-477D-A926-175E486387C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693664C8-370F-48F5-9AAA-DDFB7267D852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="4" r:id="rId1"/>
-    <sheet name="lock" sheetId="1" r:id="rId2"/>
-    <sheet name="noLock" sheetId="2" r:id="rId3"/>
+    <sheet name="histogram" sheetId="4" r:id="rId1"/>
+    <sheet name="times - lock" sheetId="1" r:id="rId2"/>
+    <sheet name="times - noLock" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">results!$A$1:$A$1000</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">results!$B$1:$B$1000</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">results!$A$1:$A$1000</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">results!$B$1:$B$1000</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,7 +651,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>results!$B$1:$B$1000</c:f>
+              <c:f>histogram!$B$1:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -4084,7 +4078,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>lock!$B$1:$B$27</c:f>
+              <c:f>'times - lock'!$B$1:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -4174,7 +4168,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>lock!$C$1:$C$27</c:f>
+              <c:f>'times - lock'!$C$1:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -4668,7 +4662,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>noLock!$B$1:$B$24</c:f>
+              <c:f>'times - noLock'!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4749,7 +4743,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>noLock!$C$1:$C$24</c:f>
+              <c:f>'times - noLock'!$C$1:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7211,7 +7205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -15227,7 +15221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15540,7 +15534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
